--- a/DOCS/api_verbs_v1.xlsx
+++ b/DOCS/api_verbs_v1.xlsx
@@ -194,7 +194,7 @@
   <dimension ref="A3:D8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
